--- a/KOI-1843_params.xlsx
+++ b/KOI-1843_params.xlsx
@@ -12,6 +12,7 @@
   <definedNames>
     <definedName name="MEarth">5.972E+24</definedName>
     <definedName name="MMars">6.39E+23</definedName>
+    <definedName name="Rappaport_density">9000</definedName>
     <definedName name="REarth">6371</definedName>
     <definedName name="RSun">695800</definedName>
   </definedNames>
@@ -456,7 +457,7 @@
     <t>Mp</t>
   </si>
   <si>
-    <t>Based on Lopez &amp; Fortney (2014</t>
+    <t>Based on Lopez &amp; Fortney (2014)</t>
   </si>
 </sst>
 </file>
@@ -871,16 +872,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO77"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK53" workbookViewId="0">
-      <selection activeCell="AT77" sqref="AT77"/>
+    <sheetView tabSelected="1" topLeftCell="AF54" workbookViewId="0">
+      <selection activeCell="AU77" sqref="AU77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1203,50 +1205,50 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:67">
+    <row r="65" spans="1:68">
       <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:67">
+    <row r="66" spans="1:68">
       <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:67">
+    <row r="67" spans="1:68">
       <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:67">
+    <row r="68" spans="1:68">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:67">
+    <row r="69" spans="1:68">
       <c r="A69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:67">
+    <row r="70" spans="1:68">
       <c r="A70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:67">
+    <row r="71" spans="1:68">
       <c r="A71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:67">
+    <row r="72" spans="1:68">
       <c r="A72" t="s">
         <v>2</v>
       </c>
-      <c r="AT72" t="s">
+      <c r="AU72" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:67">
+    <row r="73" spans="1:68">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1268,188 +1270,188 @@
       <c r="G73" t="s">
         <v>76</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>77</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>78</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>79</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>80</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>81</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>82</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>83</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>84</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>85</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>86</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>87</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>88</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>89</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>90</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
         <v>91</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>92</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>93</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>94</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>95</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>96</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AC73" t="s">
         <v>97</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="AD73" t="s">
         <v>98</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AE73" t="s">
         <v>99</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="AF73" t="s">
         <v>100</v>
       </c>
-      <c r="AF73" t="s">
+      <c r="AG73" t="s">
         <v>101</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AH73" t="s">
         <v>102</v>
       </c>
-      <c r="AH73" t="s">
+      <c r="AI73" t="s">
         <v>103</v>
       </c>
-      <c r="AI73" t="s">
+      <c r="AJ73" t="s">
         <v>104</v>
       </c>
-      <c r="AJ73" t="s">
+      <c r="AK73" t="s">
         <v>105</v>
       </c>
-      <c r="AK73" t="s">
+      <c r="AL73" t="s">
         <v>106</v>
       </c>
-      <c r="AL73" t="s">
+      <c r="AM73" t="s">
         <v>107</v>
       </c>
-      <c r="AM73" t="s">
+      <c r="AN73" t="s">
         <v>108</v>
       </c>
-      <c r="AN73" t="s">
+      <c r="AO73" t="s">
         <v>109</v>
       </c>
-      <c r="AO73" t="s">
+      <c r="AP73" t="s">
         <v>110</v>
       </c>
-      <c r="AP73" t="s">
+      <c r="AQ73" t="s">
         <v>111</v>
       </c>
-      <c r="AQ73" t="s">
+      <c r="AR73" t="s">
         <v>112</v>
       </c>
-      <c r="AR73" t="s">
+      <c r="AS73" t="s">
         <v>113</v>
       </c>
-      <c r="AS73" t="s">
+      <c r="AT73" t="s">
         <v>114</v>
       </c>
-      <c r="AT73" t="s">
+      <c r="AU73" t="s">
         <v>142</v>
       </c>
-      <c r="AU73" t="s">
+      <c r="AV73" t="s">
         <v>115</v>
       </c>
-      <c r="AV73" t="s">
+      <c r="AW73" t="s">
         <v>116</v>
       </c>
-      <c r="AW73" t="s">
+      <c r="AX73" t="s">
         <v>117</v>
       </c>
-      <c r="AX73" t="s">
+      <c r="AY73" t="s">
         <v>118</v>
       </c>
-      <c r="AY73" t="s">
+      <c r="AZ73" t="s">
         <v>119</v>
       </c>
-      <c r="AZ73" t="s">
+      <c r="BA73" t="s">
         <v>120</v>
       </c>
-      <c r="BA73" t="s">
+      <c r="BB73" t="s">
         <v>121</v>
       </c>
-      <c r="BB73" t="s">
+      <c r="BC73" t="s">
         <v>122</v>
       </c>
-      <c r="BC73" t="s">
+      <c r="BD73" t="s">
         <v>123</v>
       </c>
-      <c r="BD73" t="s">
+      <c r="BE73" t="s">
         <v>124</v>
       </c>
-      <c r="BE73" t="s">
+      <c r="BF73" t="s">
         <v>125</v>
       </c>
-      <c r="BF73" t="s">
+      <c r="BG73" t="s">
         <v>126</v>
       </c>
-      <c r="BG73" t="s">
+      <c r="BH73" t="s">
         <v>127</v>
       </c>
-      <c r="BH73" t="s">
+      <c r="BI73" t="s">
         <v>128</v>
       </c>
-      <c r="BI73" t="s">
+      <c r="BJ73" t="s">
         <v>129</v>
       </c>
-      <c r="BJ73" t="s">
+      <c r="BK73" t="s">
         <v>130</v>
       </c>
-      <c r="BK73" t="s">
+      <c r="BL73" t="s">
         <v>131</v>
       </c>
-      <c r="BL73" t="s">
+      <c r="BM73" t="s">
         <v>132</v>
       </c>
-      <c r="BM73" t="s">
+      <c r="BN73" t="s">
         <v>133</v>
       </c>
-      <c r="BN73" t="s">
+      <c r="BO73" t="s">
         <v>134</v>
       </c>
-      <c r="BO73" t="s">
+      <c r="BP73" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:67">
+    <row r="74" spans="1:68">
       <c r="A74">
         <v>1454</v>
       </c>
@@ -1468,138 +1470,138 @@
       <c r="G74">
         <v>4.1944965139999999</v>
       </c>
-      <c r="H74" s="1">
+      <c r="I74" s="1">
         <v>5.0309999999999998E-6</v>
       </c>
-      <c r="I74" s="1">
+      <c r="J74" s="1">
         <v>-5.0309999999999998E-6</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>134.13428999999999</v>
       </c>
-      <c r="K74" s="1">
+      <c r="L74" s="1">
         <v>1.01E-3</v>
       </c>
-      <c r="L74" s="1">
+      <c r="M74" s="1">
         <v>-1.01E-3</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>745</v>
       </c>
-      <c r="N74" s="1">
+      <c r="O74" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="O74" s="1">
+      <c r="P74" s="1">
         <v>-16.399999999999999</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>1.8482000000000001</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>-4.3799999999999999E-2</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.82369999999999999</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>-0.58279999999999998</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>85.37</v>
       </c>
-      <c r="AB74">
+      <c r="AC74">
         <v>3.95E-2</v>
       </c>
-      <c r="AE74">
+      <c r="AF74">
         <v>0</v>
       </c>
-      <c r="AK74">
+      <c r="AL74">
         <v>10.74</v>
       </c>
-      <c r="AL74">
+      <c r="AM74">
         <v>4.7</v>
       </c>
-      <c r="AM74">
+      <c r="AN74">
         <v>-4.7</v>
       </c>
-      <c r="AN74">
+      <c r="AO74">
         <v>2.9387E-2</v>
       </c>
-      <c r="AO74" s="1">
+      <c r="AP74" s="1">
         <v>2.3599999999999999E-4</v>
       </c>
-      <c r="AP74" s="1">
+      <c r="AQ74" s="1">
         <v>-5.2100000000000002E-3</v>
       </c>
-      <c r="AQ74">
+      <c r="AR74">
         <v>1.44</v>
       </c>
-      <c r="AR74" s="1">
+      <c r="AS74" s="1">
         <v>0.26</v>
       </c>
-      <c r="AS74" s="1">
+      <c r="AT74" s="1">
         <v>-0.16</v>
       </c>
-      <c r="AT74" s="4">
-        <f>AQ74^4</f>
+      <c r="AU74" s="4">
+        <f>AR74^4</f>
         <v>4.2998169599999994</v>
       </c>
-      <c r="AU74">
+      <c r="AV74">
         <v>534</v>
       </c>
-      <c r="AX74">
+      <c r="AY74">
         <v>3584</v>
       </c>
-      <c r="AY74">
+      <c r="AZ74">
         <v>69</v>
       </c>
-      <c r="AZ74">
+      <c r="BA74">
         <v>-54</v>
       </c>
-      <c r="BA74">
+      <c r="BB74">
         <v>4.7990000000000004</v>
       </c>
-      <c r="BB74">
+      <c r="BC74">
         <v>0.06</v>
       </c>
-      <c r="BC74">
+      <c r="BD74">
         <v>-0.09</v>
       </c>
-      <c r="BD74">
+      <c r="BE74">
         <v>0.45</v>
       </c>
-      <c r="BE74">
+      <c r="BF74">
         <v>0.08</v>
       </c>
-      <c r="BF74">
+      <c r="BG74">
         <v>-0.05</v>
       </c>
-      <c r="BJ74" t="s">
+      <c r="BK74" t="s">
         <v>138</v>
       </c>
-      <c r="BK74" t="s">
+      <c r="BL74" t="s">
         <v>139</v>
       </c>
-      <c r="BL74" s="2">
+      <c r="BM74" s="2">
         <v>40515</v>
       </c>
-      <c r="BM74">
+      <c r="BN74">
         <v>285.01309199999997</v>
       </c>
-      <c r="BN74">
+      <c r="BO74">
         <v>40.220748999999998</v>
       </c>
-      <c r="BO74">
+      <c r="BP74">
         <v>14.404</v>
       </c>
     </row>
-    <row r="75" spans="1:67">
+    <row r="75" spans="1:68">
       <c r="A75">
         <v>1455</v>
       </c>
@@ -1618,138 +1620,138 @@
       <c r="G75">
         <v>6.3558228400000001</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <v>3.396E-5</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J75" s="1">
         <v>-3.396E-5</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>137.50196</v>
       </c>
-      <c r="K75" s="1">
+      <c r="L75" s="1">
         <v>4.0099999999999997E-3</v>
       </c>
-      <c r="L75" s="1">
+      <c r="M75" s="1">
         <v>-4.0099999999999997E-3</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>200.6</v>
       </c>
-      <c r="N75" s="1">
+      <c r="O75" s="1">
         <v>22.1</v>
       </c>
-      <c r="O75" s="1">
+      <c r="P75" s="1">
         <v>-22.1</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>1.5249999999999999</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>0.14499999999999999</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.50649999999999995</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>-0.50649999999999995</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>88.81</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>5.21E-2</v>
       </c>
-      <c r="AE75">
+      <c r="AF75">
         <v>0</v>
       </c>
-      <c r="AK75">
+      <c r="AL75">
         <v>27.9</v>
       </c>
-      <c r="AL75">
+      <c r="AM75">
         <v>12</v>
       </c>
-      <c r="AM75">
+      <c r="AN75">
         <v>-12</v>
       </c>
-      <c r="AN75">
+      <c r="AO75">
         <v>1.285E-2</v>
       </c>
-      <c r="AO75" s="1">
+      <c r="AP75" s="1">
         <v>6.0499999999999996E-4</v>
       </c>
-      <c r="AP75" s="1">
+      <c r="AQ75" s="1">
         <v>-1.4350000000000001E-3</v>
       </c>
-      <c r="AQ75">
+      <c r="AR75">
         <v>0.63</v>
       </c>
-      <c r="AR75" s="1">
+      <c r="AS75" s="1">
         <v>0.11</v>
       </c>
-      <c r="AS75" s="1">
+      <c r="AT75" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="AT75" s="4">
-        <f>AQ75^4</f>
+      <c r="AU75" s="4">
+        <f>AR75^4</f>
         <v>0.15752961000000001</v>
       </c>
-      <c r="AU75">
+      <c r="AV75">
         <v>465</v>
       </c>
-      <c r="AX75">
+      <c r="AY75">
         <v>3584</v>
       </c>
-      <c r="AY75">
+      <c r="AZ75">
         <v>69</v>
       </c>
-      <c r="AZ75">
+      <c r="BA75">
         <v>-54</v>
       </c>
-      <c r="BA75">
+      <c r="BB75">
         <v>4.7990000000000004</v>
       </c>
-      <c r="BB75">
+      <c r="BC75">
         <v>0.06</v>
       </c>
-      <c r="BC75">
+      <c r="BD75">
         <v>-0.09</v>
       </c>
-      <c r="BD75">
+      <c r="BE75">
         <v>0.45</v>
       </c>
-      <c r="BE75">
+      <c r="BF75">
         <v>0.08</v>
       </c>
-      <c r="BF75">
+      <c r="BG75">
         <v>-0.05</v>
       </c>
-      <c r="BJ75" t="s">
+      <c r="BK75" t="s">
         <v>138</v>
       </c>
-      <c r="BK75" t="s">
+      <c r="BL75" t="s">
         <v>139</v>
       </c>
-      <c r="BL75" s="2">
+      <c r="BM75" s="2">
         <v>40515</v>
       </c>
-      <c r="BM75">
+      <c r="BN75">
         <v>285.01309199999997</v>
       </c>
-      <c r="BN75">
+      <c r="BO75">
         <v>40.220748999999998</v>
       </c>
-      <c r="BO75">
+      <c r="BP75">
         <v>14.404</v>
       </c>
     </row>
-    <row r="76" spans="1:67" s="3" customFormat="1">
+    <row r="76" spans="1:68" s="3" customFormat="1">
       <c r="C76" s="3" t="s">
         <v>141</v>
       </c>
@@ -1762,73 +1764,79 @@
       <c r="G76" s="3">
         <v>0.176896</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1.9999999999999999E-6</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>131.5395</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1.1000000000000001E-3</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <f>0.0085^2*1000000</f>
         <v>72.250000000000014</v>
       </c>
-      <c r="P76" s="3">
-        <f>G76/PI()*ASIN(V76/(2*(AK76)))*24</f>
+      <c r="Q76" s="3">
+        <f>G76/PI()*ASIN(W76/(2*(AL76)))*24</f>
         <v>0.17833105527741164</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>0.5</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>0.3</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-0.3</v>
       </c>
-      <c r="AK76" s="3">
+      <c r="AL76" s="3">
         <v>1.9</v>
       </c>
-      <c r="AL76" s="3">
+      <c r="AM76" s="3">
         <v>0.8</v>
       </c>
-      <c r="AM76" s="3">
+      <c r="AN76" s="3">
         <v>-0.7</v>
       </c>
-      <c r="AN76" s="3">
-        <f>SQRT(M76/1000000)</f>
+      <c r="AO76" s="3">
+        <f>SQRT(N76/1000000)</f>
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="AO76" s="3">
+      <c r="AP76" s="3">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="AP76" s="3">
+      <c r="AQ76" s="3">
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="AQ76" s="3">
-        <f>AN76*BD76*RSun/REarth</f>
+      <c r="AR76" s="3">
+        <f>AO76*BE76*RSun/REarth</f>
         <v>0.41774211269816364</v>
       </c>
-      <c r="AT76" s="4">
-        <f>AQ76^4</f>
-        <v>3.0453207051599325E-2</v>
-      </c>
-      <c r="BD76">
+      <c r="AU76" s="4">
+        <f>Rappaport_density*4*PI()/3*(AR76*REarth*1000)^3/MEarth</f>
+        <v>0.11900327443614245</v>
+      </c>
+      <c r="BE76">
         <v>0.45</v>
       </c>
     </row>
-    <row r="77" spans="1:67">
-      <c r="P77">
-        <f>G76/PI()*ASIN(V76/(2*(AK76)))*24*60</f>
+    <row r="77" spans="1:68">
+      <c r="Q77">
+        <f>G76/PI()*ASIN(W76/(2*(AL76)))*24*60</f>
         <v>10.699863316644699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="H79">
+        <f>(G75/G74-3/2)/(3/2)</f>
+        <v>1.0184467319041582E-2</v>
       </c>
     </row>
   </sheetData>
